--- a/Phase-2/Whiteboard.xlsx
+++ b/Phase-2/Whiteboard.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Course Schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Azure Data Bricks</t>
   </si>
@@ -111,6 +114,42 @@
   </si>
   <si>
     <t>https://us02web.zoom.us/w/84500075757?tk=_IfvQP1ybVQBJmfvpm25MPIU3bw7UWNk20iQe0KC-mo.DQIAAAATrJjU7RY3NkQxXzU2MVRFT2pid2JqM0Y3ZjBRAAAAAAAAAAAAAAAAAAAAAAAAAAAA&amp;pwd=N1AvdG9BeXV2TEl3MGN5WjA0SlAyUT09</t>
+  </si>
+  <si>
+    <t>Azure Portal</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Public IP</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>DNS Name</t>
+  </si>
+  <si>
+    <t>East US</t>
+  </si>
+  <si>
+    <t>10 Cores</t>
+  </si>
+  <si>
+    <t>Apache Spark</t>
+  </si>
+  <si>
+    <t>Master Node</t>
+  </si>
+  <si>
+    <t>Worked Node</t>
   </si>
 </sst>
 </file>
@@ -160,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +227,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,6 +362,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,8 +394,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,6 +412,502 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="657225"/>
+          <a:ext cx="1104900" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3676650" y="1185863"/>
+          <a:ext cx="5419725" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2667000" y="1914525"/>
+          <a:ext cx="381000" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2562225" y="1485900"/>
+          <a:ext cx="685800" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="990600"/>
+          <a:ext cx="838200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="1419225"/>
+          <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3952875" y="819150"/>
+          <a:ext cx="1419225" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3819525" y="1323975"/>
+          <a:ext cx="1562100" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="1466850"/>
+          <a:ext cx="1400175" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="1533525"/>
+          <a:ext cx="1457325" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +1200,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,12 +1213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -691,13 +1240,13 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -708,9 +1257,9 @@
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -719,9 +1268,9 @@
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -730,9 +1279,9 @@
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -744,8 +1293,8 @@
       <c r="C8" s="8">
         <v>0.5</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -757,10 +1306,10 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -772,8 +1321,8 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -785,8 +1334,8 @@
       <c r="C11" s="8">
         <v>1.5</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -798,8 +1347,8 @@
       <c r="C12" s="8">
         <v>1.5</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -811,10 +1360,10 @@
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -826,8 +1375,8 @@
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -839,8 +1388,8 @@
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -852,8 +1401,8 @@
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -863,21 +1412,21 @@
       <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -896,4 +1445,629 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Phase-2/Whiteboard.xlsx
+++ b/Phase-2/Whiteboard.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Course Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>Azure Data Bricks</t>
   </si>
@@ -151,12 +155,165 @@
   <si>
     <t>Worked Node</t>
   </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>Service Principal</t>
+  </si>
+  <si>
+    <t>Data Bricks</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>-flightsdata.csv</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Notebook - mount</t>
+  </si>
+  <si>
+    <t>User ID/ Password</t>
+  </si>
+  <si>
+    <t>flights data</t>
+  </si>
+  <si>
+    <t>Data bricks</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>datalake-app</t>
+  </si>
+  <si>
+    <t>blob data reader</t>
+  </si>
+  <si>
+    <t>Active Directory</t>
+  </si>
+  <si>
+    <t>Created in</t>
+  </si>
+  <si>
+    <t>Request for Token - OAuth 2.0</t>
+  </si>
+  <si>
+    <t>Send SP App ID, Secret to AAD</t>
+  </si>
+  <si>
+    <t>1 Time</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Send Access Key</t>
+  </si>
+  <si>
+    <t>Or Send Token</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>part0000-</t>
+  </si>
+  <si>
+    <t>part0001-</t>
+  </si>
+  <si>
+    <t>part00002-</t>
+  </si>
+  <si>
+    <t>part-0003-</t>
+  </si>
+  <si>
+    <t>Dest Country</t>
+  </si>
+  <si>
+    <t>Origin County</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Lazy Evaluation</t>
+  </si>
+  <si>
+    <t>Dest County</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Or C</t>
+  </si>
+  <si>
+    <t>inFerSchema (based on 10 records)</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>hard disk</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>inferSchema</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Static Schema</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +355,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +407,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,12 +526,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -364,6 +585,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,8 +621,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,6 +653,399 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4057650" y="1590675"/>
+          <a:ext cx="3781425" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1905000"/>
+          <a:ext cx="4086225" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="523875"/>
+          <a:ext cx="1857375" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="552450"/>
+          <a:ext cx="2924175" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Smiley Face 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="3438525"/>
+          <a:ext cx="762000" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flowchart: Data 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="3533775"/>
+          <a:ext cx="1066800" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="2447925"/>
+          <a:ext cx="828675" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2543175" y="2428875"/>
+          <a:ext cx="735330" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -616,7 +1247,338 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3362325" y="323850"/>
+          <a:ext cx="2647950" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3105150" y="1047750"/>
+          <a:ext cx="1885950" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="1857375"/>
+          <a:ext cx="1266825" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="180975"/>
+          <a:ext cx="1038225" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="1733550"/>
+          <a:ext cx="3571875" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6076950" y="2371725"/>
+          <a:ext cx="1466850" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2847975" y="76200"/>
+          <a:ext cx="2790825" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -882,6 +1844,58 @@
         <a:xfrm>
           <a:off x="3981450" y="1533525"/>
           <a:ext cx="1457325" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3457575" y="390525"/>
+          <a:ext cx="4857750" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1199,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1240,13 +2254,13 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="19">
         <v>4</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1257,9 +2271,9 @@
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1268,9 +2282,9 @@
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1279,9 +2293,9 @@
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1293,8 +2307,8 @@
       <c r="C8" s="8">
         <v>0.5</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1306,10 +2320,10 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1321,8 +2335,8 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1334,8 +2348,8 @@
       <c r="C11" s="8">
         <v>1.5</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1347,8 +2361,8 @@
       <c r="C12" s="8">
         <v>1.5</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1360,10 +2374,10 @@
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1375,8 +2389,8 @@
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1388,8 +2402,8 @@
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1401,8 +2415,8 @@
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -1412,8 +2426,8 @@
       <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1449,6 +2463,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1458,163 +2627,163 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="P11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="23"/>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1622,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:O14"/>
   <sheetViews>
@@ -1633,171 +2802,317 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="I11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:O20"/>
   <sheetViews>
@@ -1808,266 +3123,794 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="36">
+        <v>2500</v>
+      </c>
+      <c r="I6" s="33">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="33">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="33">
+        <v>1800</v>
+      </c>
+      <c r="L6" s="33">
+        <v>1200</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="16" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="30"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1500</v>
+      </c>
+      <c r="G19" s="33">
+        <v>2500</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="30"/>
+      <c r="N19" s="33">
+        <v>1200</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="30"/>
+      <c r="J20" s="33">
+        <v>3800</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="30"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="36"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="30"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="30"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="36"/>
+      <c r="G22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="37"/>
+      <c r="G23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30">
+        <v>4500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>10</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>5845621879</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I13:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Phase-2/Whiteboard.xlsx
+++ b/Phase-2/Whiteboard.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Course Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>Azure Data Bricks</t>
   </si>
@@ -307,6 +309,18 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>AAD</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>app id</t>
+  </si>
+  <si>
+    <t>secret</t>
   </si>
 </sst>
 </file>
@@ -444,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -546,12 +560,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,6 +636,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,19 +676,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2254,13 +2309,13 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="29">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2271,9 +2326,9 @@
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -2282,9 +2337,9 @@
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2293,9 +2348,9 @@
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -2307,8 +2362,8 @@
       <c r="C8" s="8">
         <v>0.5</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -2320,10 +2375,10 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2335,8 +2390,8 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -2348,8 +2403,8 @@
       <c r="C11" s="8">
         <v>1.5</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -2361,8 +2416,8 @@
       <c r="C12" s="8">
         <v>1.5</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -2374,10 +2429,10 @@
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -2389,8 +2444,8 @@
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -2402,8 +2457,8 @@
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -2415,8 +2470,8 @@
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -2426,8 +2481,8 @@
       <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2461,7 +2516,559 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
+        <v>4500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>5845621879</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I13:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="16"/>
+      <c r="F7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="16"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="16"/>
+      <c r="F8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="16"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E9" s="16"/>
+      <c r="F9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="16"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="16"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="16"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P17"/>
   <sheetViews>
@@ -2616,7 +3223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:P18"/>
   <sheetViews>
@@ -2791,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:O14"/>
   <sheetViews>
@@ -2966,7 +3573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:O17"/>
   <sheetViews>
@@ -3005,11 +3612,11 @@
       </c>
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="19"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -3018,9 +3625,9 @@
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -3029,77 +3636,77 @@
       </c>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="29"/>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="19"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="29"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+      <c r="J10" s="21"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="21"/>
       <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
@@ -3112,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:O20"/>
   <sheetViews>
@@ -3387,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P24"/>
   <sheetViews>
@@ -3398,519 +4005,262 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20">
         <v>10000</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="36">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="26">
         <v>2500</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="23">
         <v>1500</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="23">
         <v>2000</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="23">
         <v>1800</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="23">
         <v>1200</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="16" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30" t="s">
+      <c r="H16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30" t="s">
+      <c r="L16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="30"/>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="30"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="30"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="20"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="26">
         <v>1500</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="23">
         <v>2500</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="30"/>
-      <c r="N19" s="33">
+      <c r="H19" s="20"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="20"/>
+      <c r="N19" s="23">
         <v>1200</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="30"/>
-      <c r="J20" s="33">
+      <c r="F20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="20"/>
+      <c r="J20" s="23">
         <v>3800</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="30"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="20"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="36"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="30"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="30"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="20"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="20"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="36"/>
-      <c r="G22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="37"/>
-      <c r="G23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="N23" s="34"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="24"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30">
-        <v>4500</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>10</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15">
-        <v>5845621879</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I13:I16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>